--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T19:43:16+00:00</t>
+    <t>2024-01-03T18:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T18:03:54+00:00</t>
+    <t>2024-01-03T22:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>SharedDataModelResearchDataAccessPolicy</t>
@@ -580,7 +577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -624,7 +621,6 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -736,39 +732,36 @@
       <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -779,375 +772,363 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="S5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
+++ b/StructureDefinition-SharedDataModelResearchDataAccessPolicy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
